--- a/Documentation/Estimate of Person Hours.xlsx
+++ b/Documentation/Estimate of Person Hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\College 4th Semester\EECS 448\Project3\Team2-Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\College 4th Semester\EECS 448\Project3\Team2-Project3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038735A2-5161-4FC9-B4E7-973B6506F743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C5793-EF5C-4301-A4DD-C4B1B8588BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{1728A804-B47B-4D38-AC7D-8F81321A577B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Stories</t>
   </si>
@@ -141,7 +141,13 @@
     <t>We expect project 3 to take a similar amount of time to project 1, but not quite as much as Project 2 since we are just making the prototype right now.</t>
   </si>
   <si>
-    <t>1 Story Point = 1.25 hour</t>
+    <t>1 Story Point = 1 hour</t>
+  </si>
+  <si>
+    <t>We need to create an interface to store quizzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create at least one quiz </t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -619,27 +625,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>28</v>
       </c>
